--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{643EA0BC-0D68-4011-B4AF-36EFE8436B26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E8888-6C5E-4D89-8EAF-6B89AB488EFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1287,6 +1287,37 @@
     <t>함형우</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>19.09.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.09.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filling-good</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1296,7 +1327,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1367,6 +1398,12 @@
     <font>
       <sz val="10"/>
       <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1849,16 +1886,16 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1870,10 +1907,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -1885,8 +1922,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1906,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1914,7 +1951,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1922,7 +1959,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1930,7 +1967,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1938,7 +1975,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1946,7 +1983,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1954,7 +1991,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1962,7 +1999,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1970,7 +2007,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1978,7 +2015,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1986,7 +2023,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1994,7 +2031,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2002,7 +2039,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2010,7 +2047,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2018,7 +2055,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2026,7 +2063,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2034,7 +2071,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2042,7 +2079,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2050,7 +2087,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2058,7 +2095,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2066,7 +2103,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2074,7 +2111,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2082,7 +2119,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2090,7 +2127,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2098,7 +2135,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2106,7 +2143,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2114,7 +2151,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2122,7 +2159,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2130,7 +2167,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2138,7 +2175,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2146,7 +2183,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2154,7 +2191,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2162,7 +2199,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2187,7 +2224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2204,7 +2241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2221,7 +2258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2238,7 +2275,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2255,7 +2292,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2272,7 +2309,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2289,10 +2326,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
@@ -2308,13 +2346,13 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2326,12 +2364,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2345,11 +2383,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2369,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2377,7 +2415,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2385,7 +2423,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2393,7 +2431,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2401,7 +2439,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2409,7 +2447,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2417,7 +2455,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2425,7 +2463,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2433,7 +2471,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2441,7 +2479,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2449,7 +2487,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2457,7 +2495,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2465,7 +2503,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2473,7 +2511,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2481,7 +2519,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2489,7 +2527,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2497,7 +2535,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2505,7 +2543,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2513,7 +2551,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2521,7 +2559,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2529,7 +2567,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2537,7 +2575,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2545,7 +2583,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2553,7 +2591,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2561,7 +2599,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2569,7 +2607,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2577,7 +2615,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2585,7 +2623,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2593,7 +2631,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2601,7 +2639,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2609,7 +2647,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2617,7 +2655,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2625,7 +2663,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2648,17 +2686,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2670,17 +2708,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
@@ -2689,11 +2727,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2713,23 +2751,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:6" ht="13.8">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.125</v>
+      </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="E6" s="16">
+        <v>60</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="16">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2737,7 +2795,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2745,7 +2803,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2753,7 +2811,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2761,7 +2819,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2769,7 +2827,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2777,7 +2835,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2785,7 +2843,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2793,7 +2851,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2801,7 +2859,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2809,7 +2867,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2817,7 +2875,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2825,7 +2883,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2833,7 +2891,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2841,7 +2899,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2849,7 +2907,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2857,7 +2915,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2865,7 +2923,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2873,7 +2931,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2881,7 +2939,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2889,7 +2947,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2897,7 +2955,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2905,7 +2963,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2913,7 +2971,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2921,7 +2979,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2929,7 +2987,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2937,7 +2995,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2945,7 +3003,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2953,7 +3011,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2961,7 +3019,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2969,7 +3027,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2996,13 +3054,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3014,12 +3072,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3033,11 +3091,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3057,7 +3115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3065,7 +3123,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3073,7 +3131,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3081,7 +3139,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3089,7 +3147,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3097,7 +3155,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3105,7 +3163,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3113,7 +3171,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3121,7 +3179,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3129,7 +3187,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3137,7 +3195,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3145,7 +3203,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3153,7 +3211,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3161,7 +3219,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3169,7 +3227,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3177,7 +3235,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3185,7 +3243,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3193,7 +3251,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3201,7 +3259,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3209,7 +3267,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3217,7 +3275,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3225,7 +3283,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3233,7 +3291,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3241,7 +3299,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3249,7 +3307,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3257,7 +3315,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3265,7 +3323,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3273,7 +3331,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3281,7 +3339,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3289,7 +3347,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3297,7 +3355,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3305,7 +3363,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3313,7 +3371,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3340,13 +3398,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3358,12 +3416,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3377,11 +3435,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3401,7 +3459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3409,7 +3467,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3417,7 +3475,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3425,7 +3483,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3433,7 +3491,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3441,7 +3499,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3449,7 +3507,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3457,7 +3515,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3465,7 +3523,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3473,7 +3531,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3481,7 +3539,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3489,7 +3547,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3497,7 +3555,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3505,7 +3563,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3513,7 +3571,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3521,7 +3579,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3529,7 +3587,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3537,7 +3595,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3545,7 +3603,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3553,7 +3611,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3561,7 +3619,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3569,7 +3627,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3577,7 +3635,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3585,7 +3643,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3593,7 +3651,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3601,7 +3659,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3609,7 +3667,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3617,7 +3675,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3625,7 +3683,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3633,7 +3691,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3641,7 +3699,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3649,7 +3707,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3657,7 +3715,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3680,17 +3738,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3702,12 +3760,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3721,11 +3779,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3745,7 +3803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3753,7 +3811,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3761,7 +3819,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3769,7 +3827,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3777,7 +3835,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3785,7 +3843,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3793,7 +3851,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3801,7 +3859,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3809,7 +3867,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3817,7 +3875,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3825,7 +3883,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3833,7 +3891,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3841,7 +3899,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3849,7 +3907,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3857,7 +3915,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3865,7 +3923,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3873,7 +3931,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3881,7 +3939,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3889,7 +3947,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3897,7 +3955,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3905,7 +3963,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3913,7 +3971,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3921,7 +3979,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3929,7 +3987,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3937,7 +3995,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3945,7 +4003,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3953,7 +4011,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3961,7 +4019,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3969,7 +4027,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3977,7 +4035,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3985,7 +4043,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3993,7 +4051,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4001,7 +4059,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4026,7 +4084,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4043,7 +4101,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4060,7 +4118,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E8888-6C5E-4D89-8EAF-6B89AB488EFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89139E7-B072-47F5-94A5-226EF87700CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="1635" windowWidth="21150" windowHeight="16530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1264,10 +1264,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>빵끝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>김동욱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1300,10 +1296,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>filling-good</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -1318,6 +1310,111 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>FillingGood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.09.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCase Diagram 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.09.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.09.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UseCase Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당 파트 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UseCase Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성 토의 및 각 기능별 역할 분담</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UseCase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성 관련 토의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UseCase Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당부분 작성 및 전체 수정 취합</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1327,7 +1424,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1404,6 +1501,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1883,19 +1986,19 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1907,23 +2010,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +2046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1951,7 +2054,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1959,7 +2062,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1967,7 +2070,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1975,7 +2078,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1983,7 +2086,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1991,7 +2094,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1999,7 +2102,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2007,7 +2110,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2015,7 +2118,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2023,7 +2126,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2031,7 +2134,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2039,7 +2142,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2047,7 +2150,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2055,7 +2158,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2063,7 +2166,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2071,7 +2174,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2079,7 +2182,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2087,7 +2190,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2095,7 +2198,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2103,7 +2206,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2111,7 +2214,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2119,7 +2222,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2127,7 +2230,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2135,7 +2238,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2143,7 +2246,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2151,7 +2254,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2159,7 +2262,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2167,7 +2270,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2175,7 +2278,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2183,7 +2286,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2191,7 +2294,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2199,7 +2302,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2224,7 +2327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2241,7 +2344,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2258,7 +2361,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2275,7 +2378,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2292,7 +2395,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2309,7 +2412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2326,7 +2429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2343,16 +2446,16 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2364,30 +2467,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2407,7 +2510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2415,7 +2518,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2423,7 +2526,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2431,7 +2534,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2439,7 +2542,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2447,7 +2550,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2455,7 +2558,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2463,7 +2566,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2471,7 +2574,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2479,7 +2582,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2487,7 +2590,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2495,7 +2598,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2503,7 +2606,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2511,7 +2614,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2519,7 +2622,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2527,7 +2630,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2535,7 +2638,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2543,7 +2646,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2551,7 +2654,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2559,7 +2662,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2567,7 +2670,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2575,7 +2678,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2583,7 +2686,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2591,7 +2694,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2599,7 +2702,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2607,7 +2710,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2615,7 +2718,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2623,7 +2726,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2631,7 +2734,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2639,7 +2742,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2647,7 +2750,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2655,7 +2758,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2663,7 +2766,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2686,17 +2789,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2708,12 +2811,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2724,14 +2827,14 @@
         <v>8</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2751,9 +2854,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>8.3333333333333329E-2</v>
@@ -2766,12 +2869,12 @@
         <v>60</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>0.3125</v>
@@ -2784,10 +2887,10 @@
         <v>60</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2795,7 +2898,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2803,7 +2906,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2811,7 +2914,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2819,7 +2922,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2827,7 +2930,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2835,7 +2938,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2843,7 +2946,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2851,7 +2954,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2859,7 +2962,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2867,7 +2970,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2875,7 +2978,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2883,7 +2986,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2891,7 +2994,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2899,7 +3002,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2907,7 +3010,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2915,7 +3018,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2923,7 +3026,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2931,7 +3034,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2939,7 +3042,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2947,7 +3050,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2955,7 +3058,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2963,7 +3066,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2971,7 +3074,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2979,7 +3082,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2987,7 +3090,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2995,7 +3098,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3003,7 +3106,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3011,7 +3114,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3019,7 +3122,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3027,7 +3130,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3050,17 +3153,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3072,30 +3175,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3115,47 +3218,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>40</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>110</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>130</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3163,7 +3326,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3171,7 +3334,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3179,7 +3342,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3187,7 +3350,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3195,7 +3358,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3203,7 +3366,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3211,7 +3374,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3219,7 +3382,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3227,7 +3390,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3235,7 +3398,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3243,7 +3406,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3251,7 +3414,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3259,7 +3422,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3267,7 +3430,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3275,7 +3438,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3283,7 +3446,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3291,7 +3454,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3299,7 +3462,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3307,7 +3470,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3315,7 +3478,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3323,7 +3486,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3331,7 +3494,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3339,7 +3502,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3347,7 +3510,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3355,7 +3518,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3363,7 +3526,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3371,7 +3534,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3382,11 +3545,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3395,16 +3559,16 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3416,30 +3580,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3459,7 +3623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3467,7 +3631,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3475,7 +3639,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3483,7 +3647,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3491,7 +3655,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3499,7 +3663,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3507,7 +3671,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3515,7 +3679,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3523,7 +3687,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3531,7 +3695,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3539,7 +3703,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3547,7 +3711,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3555,7 +3719,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3563,7 +3727,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3571,7 +3735,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3579,7 +3743,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3587,7 +3751,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3595,7 +3759,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3603,7 +3767,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3611,7 +3775,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3619,7 +3783,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3627,7 +3791,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3635,7 +3799,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3643,7 +3807,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3651,7 +3815,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3659,7 +3823,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3667,7 +3831,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3675,7 +3839,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3683,7 +3847,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3691,7 +3855,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3699,7 +3863,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3707,7 +3871,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3715,7 +3879,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3739,16 +3903,16 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3760,30 +3924,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3803,7 +3967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3811,7 +3975,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3819,7 +3983,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3827,7 +3991,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3835,7 +3999,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3843,7 +4007,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3851,7 +4015,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3859,7 +4023,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3867,7 +4031,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3875,7 +4039,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3883,7 +4047,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3891,7 +4055,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3899,7 +4063,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3907,7 +4071,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3915,7 +4079,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3923,7 +4087,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3931,7 +4095,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3939,7 +4103,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3947,7 +4111,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3955,7 +4119,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3963,7 +4127,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3971,7 +4135,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3979,7 +4143,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3987,7 +4151,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3995,7 +4159,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4003,7 +4167,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4011,7 +4175,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4019,7 +4183,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4027,7 +4191,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4035,7 +4199,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4043,7 +4207,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4051,7 +4215,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4059,7 +4223,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4084,7 +4248,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4101,7 +4265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4118,7 +4282,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E8888-6C5E-4D89-8EAF-6B89AB488EFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C1159-B14D-496D-9EC9-647F2DDE318D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1304,18 +1304,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Use Case Outline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
+    <t>19.09.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case 및 Use Case Outline 작성 관련 조모임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Specification 작성 관련 조모임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI sketch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.10.06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 일정 등록 및 정보 수정 UC Outline 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 일정 등록 및 정보 수정 UC Spec 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1403,9 +1424,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1448,7 +1470,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1496,6 +1518,28 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2684,10 +2728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -2751,289 +2795,337 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:6" ht="15.6">
+      <c r="A6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="25">
         <v>0.125</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
+      <c r="D6" s="26"/>
+      <c r="E6" s="27">
         <v>60</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16">
+      <c r="B7" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27">
+        <v>110</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.8125</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27">
         <v>60</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.8">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="3"/>
+      <c r="F8" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27">
+        <v>60</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27">
+        <v>170</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31">
+        <v>130</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.6">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6">
+      <c r="A37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.6">
+      <c r="A38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.6">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyriloe/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5F68DB-5317-4D2C-B017-34E3BF28AE56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362FA5AC-C9D6-3A4E-B355-08D3CB401F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="1740" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1009,12 +1009,273 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Soojin Park:
-원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Soojin Park:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>원래</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Phase</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>기술하지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>우리는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>관련된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Activity</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>뭔지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>기술하도록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>함</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>성혜가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>작성하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Test Case </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>정도의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Granulity</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>작성할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>것</t>
         </r>
       </text>
     </comment>
@@ -1219,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1496,6 +1757,63 @@
     <t>개인 일정 등록 및 정보 수정 UC Spec 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>UseCase Outline 작성 및 팀원 간 역할분담 관련 조모임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 설치 및 기본 사용법 Youtube 영상 시청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인일정 등록 부분 Prototyping 코딩(기본로직 및 GUI)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인일정 등록 부분 Prototyping 코딩(데이터 저장)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인일정 등록 부분 Prototyping 코딩(데이터 로드 추가)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCase Specification 작성 관련 조모임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앞으로 일정에 대한 간단한 온라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조모임</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototyping을 위한 안드로이드 SharedPreference 기능 스터디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1505,7 +1823,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1605,6 +1923,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1646,7 +1982,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1697,6 +2033,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2083,20 +2421,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5546875" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.75" customHeight="1">
       <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
@@ -2123,8 +2461,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
+    <row r="4" spans="1:6" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2425,7 +2763,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2442,7 +2780,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2459,7 +2797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2476,7 +2814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2493,7 +2831,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2510,7 +2848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2527,7 +2865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2547,10 +2885,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2570,7 +2908,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +2926,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +2946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2704,7 +3042,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2728,7 +3066,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2887,14 +3225,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2914,7 +3252,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +3270,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2952,7 +3290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -2970,7 +3308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -2988,7 +3326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -3006,7 +3344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
@@ -3042,7 +3380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3108,7 +3446,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3132,7 +3470,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3292,12 +3630,12 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3318,7 +3656,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3336,7 +3674,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3356,7 +3694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3376,7 +3714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -3396,7 +3734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
@@ -3416,7 +3754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
@@ -3436,7 +3774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3512,7 +3850,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3536,7 +3874,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3694,19 +4032,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3718,12 +4056,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -3737,11 +4075,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:7" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3761,87 +4099,218 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
+    <row r="6" spans="1:7" ht="14">
+      <c r="A6" s="13">
+        <v>43733</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:E7" si="0">HOUR(C6)*60+MINUTE(C6)-(HOUR(B6)*60+MINUTE(B6)+D6)</f>
+        <v>60</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13">
+        <v>43735</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13">
+        <v>43736</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="8">
+        <v>60</v>
+      </c>
+      <c r="E8" s="16">
+        <f>HOUR(C8)*60+MINUTE(C8)-(HOUR(B8)*60+MINUTE(B8)+D8)</f>
+        <v>120</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13">
+        <v>43737</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="8">
+        <v>60</v>
+      </c>
+      <c r="E9" s="16">
+        <f>HOUR(C9)*60+MINUTE(C9)-(HOUR(B9)*60+MINUTE(B9)+D9)</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13">
+        <v>43737</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <f>HOUR(C10)*60+MINUTE(C10)-(HOUR(B10)*60+MINUTE(B10)+D10)</f>
+        <v>180</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14">
+        <v>43738</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" ref="E11:E16" si="1">HOUR(C11)*60+MINUTE(C11)-(HOUR(B11)*60+MINUTE(B11)+D11)</f>
+        <v>90</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13">
+        <v>43739</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="13">
+        <v>43741</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13">
+        <v>43742</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13">
+        <v>43743</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D15" s="8">
+        <v>60</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3857,7 +4326,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3881,7 +4350,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4044,9 +4513,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4067,7 +4536,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -4085,7 +4554,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4105,7 +4574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4201,7 +4670,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4225,7 +4694,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4386,7 +4855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4403,7 +4872,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4420,7 +4889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4팀_PSP_Sheet.xlsx
+++ b/4팀_PSP_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyriloe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyriloe/Documents/GitHub/FillingGood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362FA5AC-C9D6-3A4E-B355-08D3CB401F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA6F88-2DC6-1648-B621-B03F0B6912AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1740" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1814,14 +1814,39 @@
     <t>Prototyping을 위한 안드로이드 SharedPreference 기능 스터디</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>수강신청시스템 모델링에서 구현까지 참고자료 스터디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Data Set 작성(10/28~11/30 스케줄)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton Code 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB관련 기본 사용법 Youtube 영상 시청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton Code 함수로 분류하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 예제 코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;\ \(aaa\)"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1982,7 +2007,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2035,6 +2060,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2421,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -4034,18 +4089,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
+    <col min="1" max="1" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="52.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -4057,12 +4113,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20"/>
+      <c r="A2" s="29"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -4080,7 +4136,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="28">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -4100,19 +4156,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14">
-      <c r="A6" s="13">
+      <c r="A6" s="33">
         <v>43733</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="34">
         <v>0.9375</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="34">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="35">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="36">
         <f t="shared" ref="E6:E7" si="0">HOUR(C6)*60+MINUTE(C6)-(HOUR(B6)*60+MINUTE(B6)+D6)</f>
         <v>60</v>
       </c>
@@ -4121,19 +4177,19 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="33">
         <v>43735</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="34">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="34">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="35">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="36">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
@@ -4143,19 +4199,19 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="13">
+      <c r="A8" s="33">
         <v>43736</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="34">
         <v>0.625</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="34">
         <v>0.75</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="35">
         <v>60</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="36">
         <f>HOUR(C8)*60+MINUTE(C8)-(HOUR(B8)*60+MINUTE(B8)+D8)</f>
         <v>120</v>
       </c>
@@ -4164,19 +4220,19 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="33">
         <v>43737</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="34">
         <v>0.625</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="34">
         <v>0.75</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="35">
         <v>60</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="36">
         <f>HOUR(C9)*60+MINUTE(C9)-(HOUR(B9)*60+MINUTE(B9)+D9)</f>
         <v>120</v>
       </c>
@@ -4185,19 +4241,19 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13">
+      <c r="A10" s="33">
         <v>43737</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="34">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="34">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="35">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="36">
         <f>HOUR(C10)*60+MINUTE(C10)-(HOUR(B10)*60+MINUTE(B10)+D10)</f>
         <v>180</v>
       </c>
@@ -4206,20 +4262,20 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="14">
+      <c r="A11" s="37">
         <v>43738</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="38">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="38">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="39">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
-        <f t="shared" ref="E11:E16" si="1">HOUR(C11)*60+MINUTE(C11)-(HOUR(B11)*60+MINUTE(B11)+D11)</f>
+      <c r="E11" s="36">
+        <f t="shared" ref="E11:E27" si="1">HOUR(C11)*60+MINUTE(C11)-(HOUR(B11)*60+MINUTE(B11)+D11)</f>
         <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -4227,19 +4283,19 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13">
+      <c r="A12" s="33">
         <v>43739</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="34">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="34">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="35">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="36">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -4248,19 +4304,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="13">
+      <c r="A13" s="33">
         <v>43741</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="34">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="34">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="35">
         <v>0</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="36">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4269,19 +4325,19 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="13">
+      <c r="A14" s="33">
         <v>43742</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="34">
         <v>0.69097222222222221</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="34">
         <v>0.73263888888888884</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="35">
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="36">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -4290,19 +4346,19 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="13">
+      <c r="A15" s="33">
         <v>43743</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="34">
         <v>0.625</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="34">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="35">
         <v>60</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="36">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
@@ -4311,187 +4367,343 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="33">
+        <v>43746</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="34">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="14">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
+      <c r="A17" s="33">
+        <v>43747</v>
+      </c>
+      <c r="B17" s="34">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C17" s="34">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="33">
+        <v>43750</v>
+      </c>
+      <c r="B18" s="34">
+        <v>0.4375</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="33">
+        <v>43752</v>
+      </c>
+      <c r="B19" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="34">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="33">
+        <v>43764</v>
+      </c>
+      <c r="B20" s="34">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C20" s="34">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D20" s="35">
+        <v>60</v>
+      </c>
+      <c r="E20" s="36">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="14">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="33">
+        <v>43765</v>
+      </c>
+      <c r="B21" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="34">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+      <c r="E21" s="36">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="33">
+        <v>43765</v>
+      </c>
+      <c r="B22" s="34">
+        <v>0.9375</v>
+      </c>
+      <c r="C22" s="34">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0</v>
+      </c>
+      <c r="E22" s="36">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="33">
+        <v>43766</v>
+      </c>
+      <c r="B23" s="34">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C23" s="34">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D23" s="35">
+        <v>0</v>
+      </c>
+      <c r="E23" s="36">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="33">
+        <v>43767</v>
+      </c>
+      <c r="B24" s="34">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0</v>
+      </c>
+      <c r="E24" s="36">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="33">
+        <v>43768</v>
+      </c>
+      <c r="B25" s="34">
+        <v>0.125</v>
+      </c>
+      <c r="C25" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="35">
+        <v>0</v>
+      </c>
+      <c r="E25" s="36">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="33">
+        <v>43768</v>
+      </c>
+      <c r="B26" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="34">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D26" s="35">
+        <v>30</v>
+      </c>
+      <c r="E26" s="36">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="33">
+        <v>43769</v>
+      </c>
+      <c r="B27" s="34">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D27" s="35">
+        <v>40</v>
+      </c>
+      <c r="E27" s="36">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="3"/>
     </row>
   </sheetData>
